--- a/Table/xlsx/Buff.xlsx
+++ b/Table/xlsx/Buff.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Desktop\Git\ChooriGame\tables\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Documents\GitHub\MyDetectiveServer2\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251CA24A-925D-4B94-A56A-D9D4DAA903E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168C24C-4573-484D-B965-8F93CF229818}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="765" windowWidth="20970" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Translate_Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Translate_Description" sheetId="4" r:id="rId3"/>
+    <sheet name="Translate_Name" sheetId="5" r:id="rId2"/>
+    <sheet name="Translate_Desc" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,18 +415,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Revolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stackable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dropable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tradeable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,42 +435,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리볼버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1 - Transparent Icons_49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1 - Transparent Icons_50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칼에 찔림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,13 +469,105 @@
   <si>
     <t>RecordGiver</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stabbed</t>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찔림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목주변 상처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손주변 상처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체 상처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사후경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개골 부서짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱 부서짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락 부러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔 부러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴 붉어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blooding</t>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>NeckInjury</t>
+  </si>
+  <si>
+    <t>HandInjury</t>
+  </si>
+  <si>
+    <t>BodyInjury</t>
+  </si>
+  <si>
+    <t>RigorMotis</t>
+  </si>
+  <si>
+    <t>HeadBoneBreak</t>
+  </si>
+  <si>
+    <t>ChinBreak</t>
+  </si>
+  <si>
+    <t>FingerBreak</t>
+  </si>
+  <si>
+    <t>ArmBreak</t>
+  </si>
+  <si>
+    <t>RednessOfFaceSkin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +625,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +648,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,9 +699,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,19 +985,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -947,28 +1011,28 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -979,25 +1043,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -1005,7 +1069,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
@@ -1022,22 +1086,22 @@
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>1</v>
+      <c r="G3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -1054,22 +1118,22 @@
       <c r="F4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="b">
-        <v>1</v>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1081,22 +1145,310 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="b">
-        <v>1</v>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1108,11 +1460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DCF3AE-B849-4DF2-984C-653BB268D2B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA6C7D7-A62D-40B2-9BF9-0B4229D727C0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1144,10 +1496,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,10 +1507,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,42 +1518,37 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC9497-2FBF-43DB-BB52-14FC0A9E0A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF529E6-DB5F-4F5C-9747-4406852823CA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="75.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,18 +1559,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>101</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,10 +1578,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,10 +1589,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Buff.xlsx
+++ b/Table/xlsx/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Documents\GitHub\MyDetectiveServer2\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168C24C-4573-484D-B965-8F93CF229818}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5DB442-1F40-4DC7-A032-8DCC0D4FAFB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="765" windowWidth="20970" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="16200" windowHeight="10890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,378 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>정성해</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7C412646-AAB1-4F84-8DAB-67CD34FF71F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정성해</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>끝나면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>전이됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{983AD364-9F12-401C-ADF8-528FD6BE5F8B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정성해</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>증거조작</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능여부</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{87768AAF-CDF5-4C7F-832A-7B18755EB9BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정성해</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용자를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기록</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{90ADC746-9AD3-4D79-B475-B45185C09556}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정성해</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이콘</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,22 +65,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#1 - Transparent Icons_49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>칼에 찔림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총에 맞음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질식함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,13 +183,101 @@
   </si>
   <si>
     <t>RednessOfFaceSkin</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체는 피를 흘리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 무언가에 찔린 흔적이 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽어있는 시체입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목을 조른듯한 상처가있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손 주변에 상처가있다. 마치 날카로운 것에 베인듯하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체에 멍과 상처가 가득하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사후경직이 진행되고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개골이 부서져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱이 부서져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락이 부러져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔이 부러져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체의 얼굴이 붉어져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,34 +306,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -702,7 +384,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,22 +693,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1043,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1058,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1072,7 +754,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>-1</v>
@@ -1090,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1104,7 +786,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>-1</v>
@@ -1122,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1136,7 +818,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>-1</v>
@@ -1154,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1168,7 +850,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>-1</v>
@@ -1186,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1200,7 +882,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>-1</v>
@@ -1218,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,7 +914,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>-1</v>
@@ -1250,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1264,7 +946,7 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>-1</v>
@@ -1282,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1296,7 +978,7 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>-1</v>
@@ -1314,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1328,7 +1010,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>-1</v>
@@ -1346,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1360,7 +1042,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3">
         <v>-1</v>
@@ -1378,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1392,7 +1074,7 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <v>-1</v>
@@ -1410,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1424,7 +1106,7 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3">
         <v>-1</v>
@@ -1442,32 +1124,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA6C7D7-A62D-40B2-9BF9-0B4229D727C0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="52.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1477,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,40 +1172,139 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-1</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-1</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-1</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1532,13 +1315,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF529E6-DB5F-4F5C-9747-4406852823CA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1548,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1559,40 +1345,139 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-1</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-1</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-1</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Buff.xlsx
+++ b/Table/xlsx/Buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\Documents\GitHub\MyDetectiveServer2\Table\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5DB442-1F40-4DC7-A032-8DCC0D4FAFB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB1E87-9C74-4647-A394-0ED28D8CD405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="16200" windowHeight="10890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecordGiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,10 @@
   </si>
   <si>
     <t>시체의 얼굴이 붉어져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPublic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,13 +702,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -754,7 +754,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>-1</v>
@@ -766,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>-1</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="b">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>-1</v>
@@ -830,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>-1</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>-1</v>
@@ -900,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,7 +914,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>-1</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>-1</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>-1</v>
@@ -996,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>-1</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3" t="b">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3">
         <v>-1</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3">
         <v>-1</v>
@@ -1092,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3">
         <v>-1</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1180,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,10 +1191,10 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,10 +1213,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,10 +1224,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,10 +1235,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,10 +1246,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,10 +1257,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,10 +1268,10 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,10 +1279,10 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,10 +1290,10 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,10 +1301,10 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF529E6-DB5F-4F5C-9747-4406852823CA}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1353,10 +1353,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1364,10 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,10 +1375,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,10 +1386,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,10 +1397,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,10 +1408,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,10 +1419,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,10 +1430,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,10 +1441,10 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,10 +1452,10 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,10 +1463,10 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,10 +1474,10 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Buff.xlsx
+++ b/Table/xlsx/Buff.xlsx
@@ -8,26 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB1E87-9C74-4647-A394-0ED28D8CD405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC7BEC1-BFE4-4C8B-BA25-0197736EAA20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Translate_Name" sheetId="5" r:id="rId2"/>
     <sheet name="Translate_Desc" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stackable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,179 +99,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찔림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목주변 상처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손주변 상처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체 상처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사후경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개골 부서짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱 부서짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락 부러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔 부러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴 붉어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>NeckInjury</t>
+  </si>
+  <si>
+    <t>HandInjury</t>
+  </si>
+  <si>
+    <t>BodyInjury</t>
+  </si>
+  <si>
+    <t>RigorMotis</t>
+  </si>
+  <si>
+    <t>HeadBoneBreak</t>
+  </si>
+  <si>
+    <t>ChinBreak</t>
+  </si>
+  <si>
+    <t>FingerBreak</t>
+  </si>
+  <si>
+    <t>ArmBreak</t>
+  </si>
+  <si>
+    <t>RednessOfFaceSkin</t>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 - Transparent Icons_182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체는 피를 흘리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 무언가에 찔린 흔적이 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽어있는 시체입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목을 조른듯한 상처가있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손 주변에 상처가있다. 마치 날카로운 것에 베인듯하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체에 멍과 상처가 가득하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사후경직이 진행되고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개골이 부서져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱이 부서져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락이 부러져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔이 부러져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체의 얼굴이 붉어져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPublic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르말린 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손바닥 붉어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blooding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Stabbed</t>
-  </si>
-  <si>
-    <t>출혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찔림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목주변 상처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손주변 상처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체 상처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사후경직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두개골 부서짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턱 부서짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손가락 부러짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔 부러짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼굴 붉어짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blooding</t>
-  </si>
-  <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>NeckInjury</t>
-  </si>
-  <si>
-    <t>HandInjury</t>
-  </si>
-  <si>
-    <t>BodyInjury</t>
-  </si>
-  <si>
-    <t>RigorMotis</t>
-  </si>
-  <si>
-    <t>HeadBoneBreak</t>
-  </si>
-  <si>
-    <t>ChinBreak</t>
-  </si>
-  <si>
-    <t>FingerBreak</t>
-  </si>
-  <si>
-    <t>ArmBreak</t>
-  </si>
-  <si>
-    <t>RednessOfFaceSkin</t>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 - Transparent Icons_182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시체는 피를 흘리고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날카로운 무언가에 찔린 흔적이 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽어있는 시체입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목을 조른듯한 상처가있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손 주변에 상처가있다. 마치 날카로운 것에 베인듯하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체에 멍과 상처가 가득하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사후경직이 진행되고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두개골이 부서져있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턱이 부서져있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손가락이 부러져있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔이 부러져있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시체의 얼굴이 붉어져있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsPublic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,28 +717,28 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -725,25 +749,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -754,13 +778,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>-1</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -772,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -786,13 +810,13 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>-1</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -804,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -818,13 +842,13 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>-1</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -836,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,13 +874,13 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>-1</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
+      <c r="D6" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -868,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -882,13 +906,13 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>-1</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -900,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,13 +938,13 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>-1</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -932,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -946,13 +970,13 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>-1</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -964,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -978,13 +1002,13 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>-1</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -996,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1010,13 +1034,13 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>-1</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -1028,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1042,13 +1066,13 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>-1</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -1060,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1074,13 +1098,13 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>-1</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -1092,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,13 +1130,13 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>-1</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -1124,13 +1148,77 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1142,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA6C7D7-A62D-40B2-9BF9-0B4229D727C0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C16" sqref="A15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,10 +1268,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,10 +1279,10 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,10 +1290,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,10 +1301,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,10 +1312,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,10 +1323,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,10 +1334,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,10 +1345,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,10 +1356,10 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,10 +1367,10 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,10 +1378,10 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,10 +1389,32 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1315,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF529E6-DB5F-4F5C-9747-4406852823CA}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A15" sqref="A15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1463,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1474,10 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,10 +1485,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,10 +1496,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,10 +1507,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,10 +1518,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,10 +1529,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,10 +1540,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,10 +1551,10 @@
         <v>10009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,10 +1562,10 @@
         <v>10010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,10 +1573,10 @@
         <v>10011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,10 +1584,32 @@
         <v>10012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Table/xlsx/Buff.xlsx
+++ b/Table/xlsx/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC7BEC1-BFE4-4C8B-BA25-0197736EAA20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA4EAB-EDE8-47C0-A145-49CD5ED0E99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,67 @@
   </si>
   <si>
     <t>Stabbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증거조작됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살독 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청산가리 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜토바르비탈 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RednessOfHandSkin</t>
+  </si>
+  <si>
+    <t>Formalin</t>
+  </si>
+  <si>
+    <t>EvidenceModified</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyanide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentobarbital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절단되다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +398,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +484,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I15" s="3" t="b">
         <v>1</v>
@@ -1193,11 +1271,11 @@
       <c r="A16" s="3">
         <v>10014</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>65</v>
@@ -1212,12 +1290,204 @@
         <v>0</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>10015</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>10016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>10017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>10018</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>10019</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
